--- a/frontend/web/excel/profilaktika.xlsx
+++ b/frontend/web/excel/profilaktika.xlsx
@@ -104,115 +104,115 @@
     <t>Holati</t>
   </si>
   <si>
+    <t>1980-90 йиллар</t>
+  </si>
+  <si>
+    <t>1990-2000 йиллар</t>
+  </si>
+  <si>
+    <t>2000-21 йиллар</t>
+  </si>
+  <si>
+    <t>Сертификатлаштириш органи номи</t>
+  </si>
+  <si>
+    <t>Реестр рақами</t>
+  </si>
+  <si>
+    <t>амал қилиш муддати</t>
+  </si>
+  <si>
+    <t>Жами ўлчов воситалари</t>
+  </si>
+  <si>
+    <t>Қиёслаш муддати ўтган ўлчов воситалари</t>
+  </si>
+  <si>
+    <t>Қиёсловдан ўтмаган ўлчов воситалари</t>
+  </si>
+  <si>
+    <t>Мавжуд</t>
+  </si>
+  <si>
+    <t>Шартнома асосида</t>
+  </si>
+  <si>
+    <t>Мавжуд эмас</t>
+  </si>
+  <si>
+    <t>Стандарт</t>
+  </si>
+  <si>
+    <t>Сертификат</t>
+  </si>
+  <si>
+    <t>Метрология</t>
+  </si>
+  <si>
+    <t>СМТ жорий этиш</t>
+  </si>
+  <si>
+    <t>Импортга амалий ёрдам</t>
+  </si>
+  <si>
+    <t>Экспортга амалий ёрдам</t>
+  </si>
+  <si>
+    <t>Сохага оид конун ва карорлар билан таништириш</t>
+  </si>
+  <si>
+    <t>Маҳсулот ва синов учун стандарт</t>
+  </si>
+  <si>
+    <t>СМТ жорий этилганлиги</t>
+  </si>
+  <si>
+    <t>Маҳсулот учун сертификат олинганлиги.</t>
+  </si>
+  <si>
+    <t>Халкаро стандартлар</t>
+  </si>
+  <si>
+    <t>Минтакавий стандартлар</t>
+  </si>
+  <si>
+    <t>Давлатлараро стандартлар</t>
+  </si>
+  <si>
+    <t>Миллий стандартлар</t>
+  </si>
+  <si>
+    <t>Ташкилот стандартлари</t>
+  </si>
+  <si>
+    <t>Техник шартлар</t>
+  </si>
+  <si>
+    <t>Ташкилот стандартлар</t>
+  </si>
+  <si>
+    <t>стандарт тақдим қилиш (жорий этиш)</t>
+  </si>
+  <si>
+    <t>Актуаллаштириш</t>
+  </si>
+  <si>
+    <t>Халкаро стандарт жорий этиш</t>
+  </si>
+  <si>
+    <t>Сони</t>
+  </si>
+  <si>
+    <t>Номи</t>
+  </si>
+  <si>
+    <t>Давлат</t>
+  </si>
+  <si>
+    <t>Изох</t>
+  </si>
+  <si>
     <t>Profilaktika tugagan sana</t>
-  </si>
-  <si>
-    <t>1980-90 йиллар</t>
-  </si>
-  <si>
-    <t>1990-2000 йиллар</t>
-  </si>
-  <si>
-    <t>2000-21 йиллар</t>
-  </si>
-  <si>
-    <t>Сертификатлаштириш органи номи</t>
-  </si>
-  <si>
-    <t>Реестр рақами</t>
-  </si>
-  <si>
-    <t>амал қилиш муддати</t>
-  </si>
-  <si>
-    <t>Жами ўлчов воситалари</t>
-  </si>
-  <si>
-    <t>Қиёслаш муддати ўтган ўлчов воситалари</t>
-  </si>
-  <si>
-    <t>Қиёсловдан ўтмаган ўлчов воситалари</t>
-  </si>
-  <si>
-    <t>Мавжуд</t>
-  </si>
-  <si>
-    <t>Шартнома асосида</t>
-  </si>
-  <si>
-    <t>Мавжуд эмас</t>
-  </si>
-  <si>
-    <t>Стандарт</t>
-  </si>
-  <si>
-    <t>Сертификат</t>
-  </si>
-  <si>
-    <t>Метрология</t>
-  </si>
-  <si>
-    <t>СМТ жорий этиш</t>
-  </si>
-  <si>
-    <t>Импортга амалий ёрдам</t>
-  </si>
-  <si>
-    <t>Экспортга амалий ёрдам</t>
-  </si>
-  <si>
-    <t>Сохага оид конун ва карорлар билан таништириш</t>
-  </si>
-  <si>
-    <t>Маҳсулот ва синов учун стандарт</t>
-  </si>
-  <si>
-    <t>СМТ жорий этилганлиги</t>
-  </si>
-  <si>
-    <t>Маҳсулот учун сертификат олинганлиги.</t>
-  </si>
-  <si>
-    <t>Халкаро стандартлар</t>
-  </si>
-  <si>
-    <t>Минтакавий стандартлар</t>
-  </si>
-  <si>
-    <t>Давлатлараро стандартлар</t>
-  </si>
-  <si>
-    <t>Миллий стандартлар</t>
-  </si>
-  <si>
-    <t>Ташкилот стандартлари</t>
-  </si>
-  <si>
-    <t>Техник шартлар</t>
-  </si>
-  <si>
-    <t>Ташкилот стандартлар</t>
-  </si>
-  <si>
-    <t>стандарт тақдим қилиш (жорий этиш)</t>
-  </si>
-  <si>
-    <t>Актуаллаштириш</t>
-  </si>
-  <si>
-    <t>Халкаро стандарт жорий этиш</t>
-  </si>
-  <si>
-    <t>Сони</t>
-  </si>
-  <si>
-    <t>Номи</t>
-  </si>
-  <si>
-    <t>Давлат</t>
-  </si>
-  <si>
-    <t>Изох</t>
   </si>
 </sst>
 </file>
@@ -245,10 +245,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -321,7 +318,7 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -645,7 +642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -856,7 +853,7 @@
         <v>28</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:70" customHeight="1" ht="55">
@@ -874,7 +871,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -882,7 +879,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -890,7 +887,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
@@ -898,66 +895,66 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AL2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AO2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="AR2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AS2" s="7"/>
       <c r="AT2" s="7"/>
       <c r="AU2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AV2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW2" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="AW2" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="AX2" s="7"/>
       <c r="AY2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AZ2" s="7"/>
       <c r="BA2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB2" s="7"/>
       <c r="BC2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BD2" s="7"/>
       <c r="BE2" s="8"/>
@@ -965,13 +962,13 @@
       <c r="BG2" s="8"/>
       <c r="BH2" s="8"/>
       <c r="BI2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="BJ2" s="9" t="s">
+      <c r="BK2" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="BK2" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="BL2" s="1"/>
       <c r="BM2" s="1"/>
@@ -996,58 +993,58 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
@@ -1062,33 +1059,33 @@
       <c r="AP3" s="6"/>
       <c r="AQ3" s="6"/>
       <c r="AR3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AS3" s="7" t="s">
+      <c r="AT3" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="AT3" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="AU3" s="7"/>
       <c r="AV3" s="7"/>
       <c r="AW3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AX3" s="7" t="s">
+      <c r="AY3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AY3" s="7" t="s">
+      <c r="AZ3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AZ3" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="BA3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB3" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="BB3" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="BC3" s="7"/>
       <c r="BD3" s="7"/>
@@ -1108,7 +1105,6 @@
       <c r="BR3" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
@@ -1195,7 +1191,7 @@
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1204,5 +1200,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>